--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace_sug.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace_sug.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Stations" sheetId="2" r:id="rId1"/>
-    <sheet name="ForTracing" sheetId="5" r:id="rId2"/>
+    <sheet name="FwdTracing" sheetId="5" r:id="rId2"/>
     <sheet name="LookUp" sheetId="3" r:id="rId3"/>
     <sheet name="Help" sheetId="6" r:id="rId4"/>
   </sheets>
@@ -1841,15 +1841,165 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1859,25 +2009,13 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1899,144 +2037,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -2564,13 +2564,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -2635,20 +2635,20 @@
       <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:22" s="37" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="71"/>
       <c r="N7" s="50" t="s">
         <v>27</v>
@@ -2663,49 +2663,49 @@
       <c r="V7" s="52"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="101" t="s">
+      <c r="E8" s="128"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="104" t="s">
+      <c r="K8" s="123"/>
+      <c r="L8" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="119" t="s">
+      <c r="M8" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="152"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="117"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="114"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="107"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="105"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="53" t="s">
         <v>18</v>
       </c>
@@ -2730,17 +2730,17 @@
       <c r="K9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="128"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="118"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="115"/>
     </row>
     <row r="10" spans="1:22" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
@@ -2780,14 +2780,14 @@
       <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
+      <c r="A12" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="142"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -2808,64 +2808,64 @@
       <c r="V12" s="34"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="133" t="s">
+      <c r="C13" s="132"/>
+      <c r="D13" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="N13" s="129" t="s">
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="N13" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="131" t="s">
+      <c r="O13" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="131" t="s">
+      <c r="P13" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="121" t="s">
+      <c r="Q13" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="140"/>
-      <c r="S13" s="140"/>
-      <c r="T13" s="142"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="145"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="107"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="107"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="70" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="138"/>
-      <c r="N14" s="130"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="122"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="146"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="108"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="81"/>
       <c r="C15" s="44"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="138"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="N15" s="84"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
@@ -2890,20 +2890,20 @@
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
       <c r="M17" s="71"/>
       <c r="N17" s="50" t="s">
         <v>27</v>
@@ -2918,45 +2918,45 @@
       <c r="V17" s="76"/>
     </row>
     <row r="18" spans="1:22" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="95" t="s">
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="101" t="s">
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="100" t="s">
+      <c r="H18" s="144"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98" t="s">
+      <c r="K18" s="145"/>
+      <c r="L18" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="119" t="s">
+      <c r="M18" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="154"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="150"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="109"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="109"/>
+      <c r="V18" s="111"/>
     </row>
     <row r="19" spans="1:22" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="158"/>
       <c r="D19" s="70" t="s">
         <v>18</v>
       </c>
@@ -2981,22 +2981,22 @@
       <c r="K19" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="99"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="149"/>
-      <c r="P19" s="149"/>
-      <c r="Q19" s="149"/>
-      <c r="R19" s="149"/>
-      <c r="S19" s="149"/>
-      <c r="T19" s="149"/>
-      <c r="U19" s="149"/>
-      <c r="V19" s="151"/>
+      <c r="L19" s="123"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
+      <c r="R19" s="110"/>
+      <c r="S19" s="110"/>
+      <c r="T19" s="110"/>
+      <c r="U19" s="110"/>
+      <c r="V19" s="112"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
-      <c r="B20" s="137"/>
-      <c r="C20" s="138"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="81"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -3018,9 +3018,9 @@
       <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="147"/>
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
       <c r="D21" s="81"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -3042,9 +3042,9 @@
       <c r="V21" s="26"/>
     </row>
     <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="147"/>
-      <c r="B22" s="137"/>
-      <c r="C22" s="138"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="81"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -3066,9 +3066,9 @@
       <c r="V22" s="26"/>
     </row>
     <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="147"/>
-      <c r="B23" s="137"/>
-      <c r="C23" s="138"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
       <c r="D23" s="81"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -3090,9 +3090,9 @@
       <c r="V23" s="26"/>
     </row>
     <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="147"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="138"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
       <c r="D24" s="81"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -3114,9 +3114,9 @@
       <c r="V24" s="26"/>
     </row>
     <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="147"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="138"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
       <c r="D25" s="81"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -3138,9 +3138,9 @@
       <c r="V25" s="26"/>
     </row>
     <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="147"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
       <c r="D26" s="81"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -3162,9 +3162,9 @@
       <c r="V26" s="26"/>
     </row>
     <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
-      <c r="B27" s="137"/>
-      <c r="C27" s="138"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
       <c r="D27" s="81"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -3186,9 +3186,9 @@
       <c r="V27" s="26"/>
     </row>
     <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="147"/>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
       <c r="D28" s="81"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -3210,9 +3210,9 @@
       <c r="V28" s="26"/>
     </row>
     <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="137"/>
-      <c r="C29" s="138"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
       <c r="D29" s="81"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -3234,9 +3234,9 @@
       <c r="V29" s="26"/>
     </row>
     <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="147"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="81"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -3258,9 +3258,9 @@
       <c r="V30" s="26"/>
     </row>
     <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
-      <c r="B31" s="137"/>
-      <c r="C31" s="138"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="97"/>
       <c r="D31" s="81"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -3282,9 +3282,9 @@
       <c r="V31" s="26"/>
     </row>
     <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
       <c r="D32" s="81"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -3306,9 +3306,9 @@
       <c r="V32" s="26"/>
     </row>
     <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="147"/>
-      <c r="B33" s="137"/>
-      <c r="C33" s="138"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="97"/>
       <c r="D33" s="81"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -3330,9 +3330,9 @@
       <c r="V33" s="26"/>
     </row>
     <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="147"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
       <c r="D34" s="81"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -3354,9 +3354,9 @@
       <c r="V34" s="26"/>
     </row>
     <row r="35" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="147"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="138"/>
+      <c r="A35" s="95"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="81"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -3378,9 +3378,9 @@
       <c r="V35" s="26"/>
     </row>
     <row r="36" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="147"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="138"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="81"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -3402,9 +3402,9 @@
       <c r="V36" s="26"/>
     </row>
     <row r="37" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="147"/>
-      <c r="B37" s="137"/>
-      <c r="C37" s="138"/>
+      <c r="A37" s="95"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="81"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -3426,9 +3426,9 @@
       <c r="V37" s="26"/>
     </row>
     <row r="38" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="147"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="138"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
       <c r="D38" s="81"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -3450,9 +3450,9 @@
       <c r="V38" s="26"/>
     </row>
     <row r="39" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="138"/>
+      <c r="A39" s="95"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="81"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -3474,9 +3474,9 @@
       <c r="V39" s="26"/>
     </row>
     <row r="40" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="147"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="138"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="81"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -3498,9 +3498,9 @@
       <c r="V40" s="26"/>
     </row>
     <row r="41" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="147"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="138"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="81"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -3522,9 +3522,9 @@
       <c r="V41" s="26"/>
     </row>
     <row r="42" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="147"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="138"/>
+      <c r="A42" s="95"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="81"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -3546,9 +3546,9 @@
       <c r="V42" s="26"/>
     </row>
     <row r="43" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="147"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
+      <c r="A43" s="95"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
       <c r="D43" s="81"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -3570,9 +3570,9 @@
       <c r="V43" s="26"/>
     </row>
     <row r="44" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="147"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="138"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="97"/>
       <c r="D44" s="81"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -3594,9 +3594,9 @@
       <c r="V44" s="26"/>
     </row>
     <row r="45" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="147"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="138"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="81"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -3618,9 +3618,9 @@
       <c r="V45" s="26"/>
     </row>
     <row r="46" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="147"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="138"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="81"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -3642,9 +3642,9 @@
       <c r="V46" s="26"/>
     </row>
     <row r="47" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="147"/>
-      <c r="B47" s="137"/>
-      <c r="C47" s="138"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="81"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -3666,9 +3666,9 @@
       <c r="V47" s="26"/>
     </row>
     <row r="48" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="147"/>
-      <c r="B48" s="137"/>
-      <c r="C48" s="138"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="97"/>
       <c r="D48" s="81"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -3690,9 +3690,9 @@
       <c r="V48" s="26"/>
     </row>
     <row r="49" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="147"/>
-      <c r="B49" s="137"/>
-      <c r="C49" s="138"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="81"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -3714,9 +3714,9 @@
       <c r="V49" s="26"/>
     </row>
     <row r="50" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="147"/>
-      <c r="B50" s="137"/>
-      <c r="C50" s="138"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="97"/>
       <c r="D50" s="81"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -3738,9 +3738,9 @@
       <c r="V50" s="26"/>
     </row>
     <row r="51" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="147"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="138"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="81"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -3762,9 +3762,9 @@
       <c r="V51" s="26"/>
     </row>
     <row r="52" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="147"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="138"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="81"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -3786,9 +3786,9 @@
       <c r="V52" s="26"/>
     </row>
     <row r="53" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="147"/>
-      <c r="B53" s="137"/>
-      <c r="C53" s="138"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="81"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -3810,9 +3810,9 @@
       <c r="V53" s="26"/>
     </row>
     <row r="54" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="147"/>
-      <c r="B54" s="137"/>
-      <c r="C54" s="138"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="81"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -3834,9 +3834,9 @@
       <c r="V54" s="26"/>
     </row>
     <row r="55" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="147"/>
-      <c r="B55" s="137"/>
-      <c r="C55" s="138"/>
+      <c r="A55" s="95"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="81"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -3858,9 +3858,9 @@
       <c r="V55" s="26"/>
     </row>
     <row r="56" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="147"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="138"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="97"/>
       <c r="D56" s="81"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -3882,9 +3882,9 @@
       <c r="V56" s="26"/>
     </row>
     <row r="57" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="147"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="138"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="97"/>
       <c r="D57" s="81"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -3906,9 +3906,9 @@
       <c r="V57" s="26"/>
     </row>
     <row r="58" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="147"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="138"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="97"/>
       <c r="D58" s="81"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -3930,9 +3930,9 @@
       <c r="V58" s="26"/>
     </row>
     <row r="59" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="147"/>
-      <c r="B59" s="137"/>
-      <c r="C59" s="138"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="81"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
@@ -3954,9 +3954,9 @@
       <c r="V59" s="26"/>
     </row>
     <row r="60" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="147"/>
-      <c r="B60" s="137"/>
-      <c r="C60" s="138"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="97"/>
       <c r="D60" s="81"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -3978,9 +3978,9 @@
       <c r="V60" s="26"/>
     </row>
     <row r="61" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="147"/>
-      <c r="B61" s="137"/>
-      <c r="C61" s="138"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="97"/>
       <c r="D61" s="81"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -4002,9 +4002,9 @@
       <c r="V61" s="26"/>
     </row>
     <row r="62" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="147"/>
-      <c r="B62" s="137"/>
-      <c r="C62" s="138"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
       <c r="D62" s="81"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -4026,9 +4026,9 @@
       <c r="V62" s="26"/>
     </row>
     <row r="63" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="147"/>
-      <c r="B63" s="137"/>
-      <c r="C63" s="138"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
       <c r="D63" s="81"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -4050,9 +4050,9 @@
       <c r="V63" s="26"/>
     </row>
     <row r="64" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="147"/>
-      <c r="B64" s="137"/>
-      <c r="C64" s="138"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
       <c r="D64" s="81"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -4074,9 +4074,9 @@
       <c r="V64" s="26"/>
     </row>
     <row r="65" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="147"/>
-      <c r="B65" s="137"/>
-      <c r="C65" s="138"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="97"/>
       <c r="D65" s="81"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
@@ -4098,9 +4098,9 @@
       <c r="V65" s="26"/>
     </row>
     <row r="66" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="147"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="138"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="97"/>
       <c r="D66" s="81"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
@@ -4122,9 +4122,9 @@
       <c r="V66" s="26"/>
     </row>
     <row r="67" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="147"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="138"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="96"/>
+      <c r="C67" s="97"/>
       <c r="D67" s="81"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -4146,9 +4146,9 @@
       <c r="V67" s="26"/>
     </row>
     <row r="68" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="147"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="138"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="97"/>
       <c r="D68" s="81"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -4170,9 +4170,9 @@
       <c r="V68" s="26"/>
     </row>
     <row r="69" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="147"/>
-      <c r="B69" s="137"/>
-      <c r="C69" s="138"/>
+      <c r="A69" s="95"/>
+      <c r="B69" s="96"/>
+      <c r="C69" s="97"/>
       <c r="D69" s="81"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
@@ -4194,9 +4194,9 @@
       <c r="V69" s="26"/>
     </row>
     <row r="70" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="147"/>
-      <c r="B70" s="137"/>
-      <c r="C70" s="138"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="97"/>
       <c r="D70" s="81"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -4218,9 +4218,9 @@
       <c r="V70" s="26"/>
     </row>
     <row r="71" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="147"/>
-      <c r="B71" s="137"/>
-      <c r="C71" s="138"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="97"/>
       <c r="D71" s="81"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -4242,9 +4242,9 @@
       <c r="V71" s="26"/>
     </row>
     <row r="72" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="147"/>
-      <c r="B72" s="137"/>
-      <c r="C72" s="138"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="97"/>
       <c r="D72" s="81"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -4266,9 +4266,9 @@
       <c r="V72" s="26"/>
     </row>
     <row r="73" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="147"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="138"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="97"/>
       <c r="D73" s="81"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
@@ -4290,9 +4290,9 @@
       <c r="V73" s="26"/>
     </row>
     <row r="74" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="147"/>
-      <c r="B74" s="137"/>
-      <c r="C74" s="138"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="97"/>
       <c r="D74" s="81"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -4314,9 +4314,9 @@
       <c r="V74" s="26"/>
     </row>
     <row r="75" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="147"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="138"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="97"/>
       <c r="D75" s="81"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -4338,9 +4338,9 @@
       <c r="V75" s="26"/>
     </row>
     <row r="76" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="147"/>
-      <c r="B76" s="137"/>
-      <c r="C76" s="138"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="97"/>
       <c r="D76" s="81"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -4362,9 +4362,9 @@
       <c r="V76" s="26"/>
     </row>
     <row r="77" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="147"/>
-      <c r="B77" s="137"/>
-      <c r="C77" s="138"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="97"/>
       <c r="D77" s="81"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -4386,9 +4386,9 @@
       <c r="V77" s="26"/>
     </row>
     <row r="78" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="147"/>
-      <c r="B78" s="137"/>
-      <c r="C78" s="138"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="97"/>
       <c r="D78" s="81"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -4410,9 +4410,9 @@
       <c r="V78" s="26"/>
     </row>
     <row r="79" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="147"/>
-      <c r="B79" s="137"/>
-      <c r="C79" s="138"/>
+      <c r="A79" s="95"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="97"/>
       <c r="D79" s="81"/>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
@@ -4434,9 +4434,9 @@
       <c r="V79" s="26"/>
     </row>
     <row r="80" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="147"/>
-      <c r="B80" s="137"/>
-      <c r="C80" s="138"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="97"/>
       <c r="D80" s="81"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
@@ -4458,9 +4458,9 @@
       <c r="V80" s="26"/>
     </row>
     <row r="81" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="147"/>
-      <c r="B81" s="137"/>
-      <c r="C81" s="138"/>
+      <c r="A81" s="95"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="97"/>
       <c r="D81" s="81"/>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
@@ -4482,9 +4482,9 @@
       <c r="V81" s="26"/>
     </row>
     <row r="82" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="147"/>
-      <c r="B82" s="137"/>
-      <c r="C82" s="138"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="97"/>
       <c r="D82" s="81"/>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
@@ -4506,9 +4506,9 @@
       <c r="V82" s="26"/>
     </row>
     <row r="83" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="147"/>
-      <c r="B83" s="137"/>
-      <c r="C83" s="138"/>
+      <c r="A83" s="95"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="97"/>
       <c r="D83" s="81"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -4530,9 +4530,9 @@
       <c r="V83" s="26"/>
     </row>
     <row r="84" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="147"/>
-      <c r="B84" s="137"/>
-      <c r="C84" s="138"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="97"/>
       <c r="D84" s="81"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -4554,9 +4554,9 @@
       <c r="V84" s="26"/>
     </row>
     <row r="85" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="147"/>
-      <c r="B85" s="137"/>
-      <c r="C85" s="138"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="97"/>
       <c r="D85" s="81"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -4578,9 +4578,9 @@
       <c r="V85" s="26"/>
     </row>
     <row r="86" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="147"/>
-      <c r="B86" s="137"/>
-      <c r="C86" s="138"/>
+      <c r="A86" s="95"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="97"/>
       <c r="D86" s="81"/>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -4602,9 +4602,9 @@
       <c r="V86" s="26"/>
     </row>
     <row r="87" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="147"/>
-      <c r="B87" s="137"/>
-      <c r="C87" s="138"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="97"/>
       <c r="D87" s="81"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -4626,9 +4626,9 @@
       <c r="V87" s="26"/>
     </row>
     <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="147"/>
-      <c r="B88" s="137"/>
-      <c r="C88" s="138"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="97"/>
       <c r="D88" s="81"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -4650,9 +4650,9 @@
       <c r="V88" s="26"/>
     </row>
     <row r="89" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="147"/>
-      <c r="B89" s="137"/>
-      <c r="C89" s="138"/>
+      <c r="A89" s="95"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="97"/>
       <c r="D89" s="81"/>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -4674,9 +4674,9 @@
       <c r="V89" s="26"/>
     </row>
     <row r="90" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="147"/>
-      <c r="B90" s="137"/>
-      <c r="C90" s="138"/>
+      <c r="A90" s="95"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="97"/>
       <c r="D90" s="81"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -4698,9 +4698,9 @@
       <c r="V90" s="26"/>
     </row>
     <row r="91" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="147"/>
-      <c r="B91" s="137"/>
-      <c r="C91" s="138"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="97"/>
       <c r="D91" s="81"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -4722,9 +4722,9 @@
       <c r="V91" s="26"/>
     </row>
     <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="147"/>
-      <c r="B92" s="137"/>
-      <c r="C92" s="138"/>
+      <c r="A92" s="95"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="97"/>
       <c r="D92" s="81"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -4746,9 +4746,9 @@
       <c r="V92" s="26"/>
     </row>
     <row r="93" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="147"/>
-      <c r="B93" s="137"/>
-      <c r="C93" s="138"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="97"/>
       <c r="D93" s="81"/>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
@@ -4770,9 +4770,9 @@
       <c r="V93" s="26"/>
     </row>
     <row r="94" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="147"/>
-      <c r="B94" s="137"/>
-      <c r="C94" s="138"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="97"/>
       <c r="D94" s="81"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
@@ -4794,9 +4794,9 @@
       <c r="V94" s="26"/>
     </row>
     <row r="95" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="147"/>
-      <c r="B95" s="137"/>
-      <c r="C95" s="138"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="97"/>
       <c r="D95" s="81"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
@@ -4818,9 +4818,9 @@
       <c r="V95" s="26"/>
     </row>
     <row r="96" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="147"/>
-      <c r="B96" s="137"/>
-      <c r="C96" s="138"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="97"/>
       <c r="D96" s="81"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -4842,9 +4842,9 @@
       <c r="V96" s="26"/>
     </row>
     <row r="97" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="147"/>
-      <c r="B97" s="137"/>
-      <c r="C97" s="138"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="97"/>
       <c r="D97" s="81"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
@@ -4866,9 +4866,9 @@
       <c r="V97" s="26"/>
     </row>
     <row r="98" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="147"/>
-      <c r="B98" s="137"/>
-      <c r="C98" s="138"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="97"/>
       <c r="D98" s="81"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
@@ -4890,9 +4890,9 @@
       <c r="V98" s="26"/>
     </row>
     <row r="99" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="147"/>
-      <c r="B99" s="137"/>
-      <c r="C99" s="138"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="97"/>
       <c r="D99" s="81"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -4914,9 +4914,9 @@
       <c r="V99" s="26"/>
     </row>
     <row r="100" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="147"/>
-      <c r="B100" s="137"/>
-      <c r="C100" s="138"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="97"/>
       <c r="D100" s="81"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -4938,9 +4938,9 @@
       <c r="V100" s="26"/>
     </row>
     <row r="101" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="147"/>
-      <c r="B101" s="137"/>
-      <c r="C101" s="138"/>
+      <c r="A101" s="95"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="97"/>
       <c r="D101" s="81"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -4962,9 +4962,9 @@
       <c r="V101" s="26"/>
     </row>
     <row r="102" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="147"/>
-      <c r="B102" s="137"/>
-      <c r="C102" s="138"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="97"/>
       <c r="D102" s="81"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -4986,9 +4986,9 @@
       <c r="V102" s="26"/>
     </row>
     <row r="103" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="147"/>
-      <c r="B103" s="137"/>
-      <c r="C103" s="138"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="97"/>
       <c r="D103" s="81"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -5010,9 +5010,9 @@
       <c r="V103" s="26"/>
     </row>
     <row r="104" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="147"/>
-      <c r="B104" s="137"/>
-      <c r="C104" s="138"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="97"/>
       <c r="D104" s="81"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -5034,9 +5034,9 @@
       <c r="V104" s="26"/>
     </row>
     <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="156"/>
-      <c r="B105" s="157"/>
-      <c r="C105" s="158"/>
+      <c r="A105" s="98"/>
+      <c r="B105" s="99"/>
+      <c r="C105" s="100"/>
       <c r="D105" s="83"/>
       <c r="E105" s="29"/>
       <c r="F105" s="29"/>
@@ -5062,6 +5062,117 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="D13:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="N18:N19"/>
     <mergeCell ref="A101:C101"/>
@@ -5086,117 +5197,6 @@
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="D13:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace_sug.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/BfR_Format_Fortrace_sug.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>Supplier</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Delivery Date Arrival</t>
-  </si>
-  <si>
-    <t>Delivery Date Arrival (if departure unknown)</t>
   </si>
   <si>
     <t>Recipient</t>
@@ -1841,74 +1838,65 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1926,10 +1914,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1938,15 +1922,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1962,13 +1937,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="29" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1995,48 +1964,76 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="29" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="114">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -2485,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="63" t="s">
         <v>7</v>
@@ -2503,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="16"/>
       <c r="M1" s="16"/>
@@ -2564,13 +2561,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="142"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -2585,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="78" t="s">
         <v>19</v>
@@ -2635,20 +2632,20 @@
       <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:22" s="37" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
+      <c r="A7" s="91" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
       <c r="M7" s="71"/>
       <c r="N7" s="50" t="s">
         <v>27</v>
@@ -2663,49 +2660,49 @@
       <c r="V7" s="52"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="148" t="s">
+      <c r="A8" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="130" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="127" t="s">
+      <c r="C8" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="124" t="s">
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="122" t="s">
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="99"/>
+      <c r="L8" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" s="91"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="105"/>
-      <c r="T8" s="105"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="114"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="117"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="151"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="122"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="53" t="s">
         <v>18</v>
       </c>
@@ -2730,17 +2727,17 @@
       <c r="K9" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="131"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="113"/>
-      <c r="T9" s="113"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="115"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="118"/>
     </row>
     <row r="10" spans="1:22" s="37" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="80"/>
@@ -2780,14 +2777,14 @@
       <c r="L11" s="36"/>
     </row>
     <row r="12" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="119"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="142"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
@@ -2808,64 +2805,64 @@
       <c r="V12" s="34"/>
     </row>
     <row r="13" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="150" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="132" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="137" t="s">
+      <c r="A13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="95"/>
+      <c r="D13" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="N13" s="133" t="s">
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="N13" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="135" t="s">
+      <c r="O13" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="P13" s="135" t="s">
+      <c r="P13" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="120" t="s">
+      <c r="Q13" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="107"/>
+      <c r="R13" s="140"/>
+      <c r="S13" s="140"/>
+      <c r="T13" s="142"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="145"/>
     </row>
     <row r="14" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="151"/>
+      <c r="A14" s="107"/>
       <c r="B14" s="70" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="140"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="108"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="138"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="146"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82"/>
       <c r="B15" s="81"/>
       <c r="C15" s="44"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="138"/>
       <c r="N15" s="84"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
@@ -2890,20 +2887,20 @@
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="119"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
       <c r="M17" s="71"/>
       <c r="N17" s="50" t="s">
         <v>27</v>
@@ -2918,45 +2915,45 @@
       <c r="V17" s="76"/>
     </row>
     <row r="18" spans="1:22" s="38" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="153" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="132" t="s">
+      <c r="A18" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="144"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="124" t="s">
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="100" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="147" t="s">
+      <c r="M18" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="K18" s="145"/>
-      <c r="L18" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="93"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="111"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="150"/>
     </row>
     <row r="19" spans="1:22" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="158"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="70" t="s">
         <v>18</v>
       </c>
@@ -2981,22 +2978,22 @@
       <c r="K19" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="123"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
-      <c r="R19" s="110"/>
-      <c r="S19" s="110"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="110"/>
-      <c r="V19" s="112"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="151"/>
     </row>
     <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="81"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
@@ -3018,9 +3015,9 @@
       <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
+      <c r="A21" s="147"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="81"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
@@ -3042,9 +3039,9 @@
       <c r="V21" s="26"/>
     </row>
     <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="97"/>
+      <c r="A22" s="147"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="81"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -3066,9 +3063,9 @@
       <c r="V22" s="26"/>
     </row>
     <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
+      <c r="A23" s="147"/>
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="81"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
@@ -3090,9 +3087,9 @@
       <c r="V23" s="26"/>
     </row>
     <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="97"/>
+      <c r="A24" s="147"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
       <c r="D24" s="81"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -3114,9 +3111,9 @@
       <c r="V24" s="26"/>
     </row>
     <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
+      <c r="A25" s="147"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="81"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -3138,9 +3135,9 @@
       <c r="V25" s="26"/>
     </row>
     <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="97"/>
+      <c r="A26" s="147"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
       <c r="D26" s="81"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -3162,9 +3159,9 @@
       <c r="V26" s="26"/>
     </row>
     <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
+      <c r="A27" s="147"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
       <c r="D27" s="81"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -3186,9 +3183,9 @@
       <c r="V27" s="26"/>
     </row>
     <row r="28" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="97"/>
+      <c r="A28" s="147"/>
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
       <c r="D28" s="81"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -3210,9 +3207,9 @@
       <c r="V28" s="26"/>
     </row>
     <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
+      <c r="A29" s="147"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
       <c r="D29" s="81"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
@@ -3234,9 +3231,9 @@
       <c r="V29" s="26"/>
     </row>
     <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
+      <c r="A30" s="147"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="138"/>
       <c r="D30" s="81"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
@@ -3258,9 +3255,9 @@
       <c r="V30" s="26"/>
     </row>
     <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="137"/>
+      <c r="C31" s="138"/>
       <c r="D31" s="81"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -3282,9 +3279,9 @@
       <c r="V31" s="26"/>
     </row>
     <row r="32" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="81"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -3306,9 +3303,9 @@
       <c r="V32" s="26"/>
     </row>
     <row r="33" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
+      <c r="A33" s="147"/>
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
       <c r="D33" s="81"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -3330,9 +3327,9 @@
       <c r="V33" s="26"/>
     </row>
     <row r="34" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="97"/>
+      <c r="A34" s="147"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
       <c r="D34" s="81"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
@@ -3354,9 +3351,9 @@
       <c r="V34" s="26"/>
     </row>
     <row r="35" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="97"/>
+      <c r="A35" s="147"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
       <c r="D35" s="81"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
@@ -3378,9 +3375,9 @@
       <c r="V35" s="26"/>
     </row>
     <row r="36" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="97"/>
+      <c r="A36" s="147"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="138"/>
       <c r="D36" s="81"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
@@ -3402,9 +3399,9 @@
       <c r="V36" s="26"/>
     </row>
     <row r="37" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="95"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
+      <c r="A37" s="147"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
       <c r="D37" s="81"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
@@ -3426,9 +3423,9 @@
       <c r="V37" s="26"/>
     </row>
     <row r="38" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
+      <c r="A38" s="147"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
       <c r="D38" s="81"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
@@ -3450,9 +3447,9 @@
       <c r="V38" s="26"/>
     </row>
     <row r="39" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="97"/>
+      <c r="A39" s="147"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="138"/>
       <c r="D39" s="81"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
@@ -3474,9 +3471,9 @@
       <c r="V39" s="26"/>
     </row>
     <row r="40" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="97"/>
+      <c r="A40" s="147"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
       <c r="D40" s="81"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
@@ -3498,9 +3495,9 @@
       <c r="V40" s="26"/>
     </row>
     <row r="41" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="97"/>
+      <c r="A41" s="147"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="81"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
@@ -3522,9 +3519,9 @@
       <c r="V41" s="26"/>
     </row>
     <row r="42" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
+      <c r="A42" s="147"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
       <c r="D42" s="81"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -3546,9 +3543,9 @@
       <c r="V42" s="26"/>
     </row>
     <row r="43" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
+      <c r="A43" s="147"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="138"/>
       <c r="D43" s="81"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
@@ -3570,9 +3567,9 @@
       <c r="V43" s="26"/>
     </row>
     <row r="44" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="97"/>
+      <c r="A44" s="147"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="138"/>
       <c r="D44" s="81"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
@@ -3594,9 +3591,9 @@
       <c r="V44" s="26"/>
     </row>
     <row r="45" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="97"/>
+      <c r="A45" s="147"/>
+      <c r="B45" s="137"/>
+      <c r="C45" s="138"/>
       <c r="D45" s="81"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
@@ -3618,9 +3615,9 @@
       <c r="V45" s="26"/>
     </row>
     <row r="46" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="97"/>
+      <c r="A46" s="147"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
       <c r="D46" s="81"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
@@ -3642,9 +3639,9 @@
       <c r="V46" s="26"/>
     </row>
     <row r="47" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="97"/>
+      <c r="A47" s="147"/>
+      <c r="B47" s="137"/>
+      <c r="C47" s="138"/>
       <c r="D47" s="81"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
@@ -3666,9 +3663,9 @@
       <c r="V47" s="26"/>
     </row>
     <row r="48" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="97"/>
+      <c r="A48" s="147"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
       <c r="D48" s="81"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
@@ -3690,9 +3687,9 @@
       <c r="V48" s="26"/>
     </row>
     <row r="49" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="96"/>
-      <c r="C49" s="97"/>
+      <c r="A49" s="147"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="138"/>
       <c r="D49" s="81"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
@@ -3714,9 +3711,9 @@
       <c r="V49" s="26"/>
     </row>
     <row r="50" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="96"/>
-      <c r="C50" s="97"/>
+      <c r="A50" s="147"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="138"/>
       <c r="D50" s="81"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -3738,9 +3735,9 @@
       <c r="V50" s="26"/>
     </row>
     <row r="51" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="97"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="138"/>
       <c r="D51" s="81"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
@@ -3762,9 +3759,9 @@
       <c r="V51" s="26"/>
     </row>
     <row r="52" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
+      <c r="A52" s="147"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="138"/>
       <c r="D52" s="81"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
@@ -3786,9 +3783,9 @@
       <c r="V52" s="26"/>
     </row>
     <row r="53" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
+      <c r="A53" s="147"/>
+      <c r="B53" s="137"/>
+      <c r="C53" s="138"/>
       <c r="D53" s="81"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
@@ -3810,9 +3807,9 @@
       <c r="V53" s="26"/>
     </row>
     <row r="54" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
+      <c r="A54" s="147"/>
+      <c r="B54" s="137"/>
+      <c r="C54" s="138"/>
       <c r="D54" s="81"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
@@ -3834,9 +3831,9 @@
       <c r="V54" s="26"/>
     </row>
     <row r="55" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
+      <c r="A55" s="147"/>
+      <c r="B55" s="137"/>
+      <c r="C55" s="138"/>
       <c r="D55" s="81"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
@@ -3858,9 +3855,9 @@
       <c r="V55" s="26"/>
     </row>
     <row r="56" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="97"/>
+      <c r="A56" s="147"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="138"/>
       <c r="D56" s="81"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
@@ -3882,9 +3879,9 @@
       <c r="V56" s="26"/>
     </row>
     <row r="57" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="97"/>
+      <c r="A57" s="147"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="138"/>
       <c r="D57" s="81"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
@@ -3906,9 +3903,9 @@
       <c r="V57" s="26"/>
     </row>
     <row r="58" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="97"/>
+      <c r="A58" s="147"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="138"/>
       <c r="D58" s="81"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
@@ -3930,9 +3927,9 @@
       <c r="V58" s="26"/>
     </row>
     <row r="59" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="97"/>
+      <c r="A59" s="147"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="138"/>
       <c r="D59" s="81"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
@@ -3954,9 +3951,9 @@
       <c r="V59" s="26"/>
     </row>
     <row r="60" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="97"/>
+      <c r="A60" s="147"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
       <c r="D60" s="81"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
@@ -3978,9 +3975,9 @@
       <c r="V60" s="26"/>
     </row>
     <row r="61" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="97"/>
+      <c r="A61" s="147"/>
+      <c r="B61" s="137"/>
+      <c r="C61" s="138"/>
       <c r="D61" s="81"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
@@ -4002,9 +3999,9 @@
       <c r="V61" s="26"/>
     </row>
     <row r="62" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="97"/>
+      <c r="A62" s="147"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
       <c r="D62" s="81"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
@@ -4026,9 +4023,9 @@
       <c r="V62" s="26"/>
     </row>
     <row r="63" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="97"/>
+      <c r="A63" s="147"/>
+      <c r="B63" s="137"/>
+      <c r="C63" s="138"/>
       <c r="D63" s="81"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
@@ -4050,9 +4047,9 @@
       <c r="V63" s="26"/>
     </row>
     <row r="64" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="97"/>
+      <c r="A64" s="147"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
       <c r="D64" s="81"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
@@ -4074,9 +4071,9 @@
       <c r="V64" s="26"/>
     </row>
     <row r="65" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="97"/>
+      <c r="A65" s="147"/>
+      <c r="B65" s="137"/>
+      <c r="C65" s="138"/>
       <c r="D65" s="81"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
@@ -4098,9 +4095,9 @@
       <c r="V65" s="26"/>
     </row>
     <row r="66" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="97"/>
+      <c r="A66" s="147"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="138"/>
       <c r="D66" s="81"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
@@ -4122,9 +4119,9 @@
       <c r="V66" s="26"/>
     </row>
     <row r="67" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="96"/>
-      <c r="C67" s="97"/>
+      <c r="A67" s="147"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="138"/>
       <c r="D67" s="81"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
@@ -4146,9 +4143,9 @@
       <c r="V67" s="26"/>
     </row>
     <row r="68" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="96"/>
-      <c r="C68" s="97"/>
+      <c r="A68" s="147"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="138"/>
       <c r="D68" s="81"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
@@ -4170,9 +4167,9 @@
       <c r="V68" s="26"/>
     </row>
     <row r="69" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
-      <c r="B69" s="96"/>
-      <c r="C69" s="97"/>
+      <c r="A69" s="147"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="138"/>
       <c r="D69" s="81"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
@@ -4194,9 +4191,9 @@
       <c r="V69" s="26"/>
     </row>
     <row r="70" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
-      <c r="B70" s="96"/>
-      <c r="C70" s="97"/>
+      <c r="A70" s="147"/>
+      <c r="B70" s="137"/>
+      <c r="C70" s="138"/>
       <c r="D70" s="81"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
@@ -4218,9 +4215,9 @@
       <c r="V70" s="26"/>
     </row>
     <row r="71" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="95"/>
-      <c r="B71" s="96"/>
-      <c r="C71" s="97"/>
+      <c r="A71" s="147"/>
+      <c r="B71" s="137"/>
+      <c r="C71" s="138"/>
       <c r="D71" s="81"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
@@ -4242,9 +4239,9 @@
       <c r="V71" s="26"/>
     </row>
     <row r="72" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="95"/>
-      <c r="B72" s="96"/>
-      <c r="C72" s="97"/>
+      <c r="A72" s="147"/>
+      <c r="B72" s="137"/>
+      <c r="C72" s="138"/>
       <c r="D72" s="81"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
@@ -4266,9 +4263,9 @@
       <c r="V72" s="26"/>
     </row>
     <row r="73" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="95"/>
-      <c r="B73" s="96"/>
-      <c r="C73" s="97"/>
+      <c r="A73" s="147"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="138"/>
       <c r="D73" s="81"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
@@ -4290,9 +4287,9 @@
       <c r="V73" s="26"/>
     </row>
     <row r="74" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="95"/>
-      <c r="B74" s="96"/>
-      <c r="C74" s="97"/>
+      <c r="A74" s="147"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="138"/>
       <c r="D74" s="81"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
@@ -4314,9 +4311,9 @@
       <c r="V74" s="26"/>
     </row>
     <row r="75" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
-      <c r="B75" s="96"/>
-      <c r="C75" s="97"/>
+      <c r="A75" s="147"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="138"/>
       <c r="D75" s="81"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
@@ -4338,9 +4335,9 @@
       <c r="V75" s="26"/>
     </row>
     <row r="76" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="95"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="97"/>
+      <c r="A76" s="147"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="138"/>
       <c r="D76" s="81"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
@@ -4362,9 +4359,9 @@
       <c r="V76" s="26"/>
     </row>
     <row r="77" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="95"/>
-      <c r="B77" s="96"/>
-      <c r="C77" s="97"/>
+      <c r="A77" s="147"/>
+      <c r="B77" s="137"/>
+      <c r="C77" s="138"/>
       <c r="D77" s="81"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
@@ -4386,9 +4383,9 @@
       <c r="V77" s="26"/>
     </row>
     <row r="78" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="95"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="97"/>
+      <c r="A78" s="147"/>
+      <c r="B78" s="137"/>
+      <c r="C78" s="138"/>
       <c r="D78" s="81"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
@@ -4410,9 +4407,9 @@
       <c r="V78" s="26"/>
     </row>
     <row r="79" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="95"/>
-      <c r="B79" s="96"/>
-      <c r="C79" s="97"/>
+      <c r="A79" s="147"/>
+      <c r="B79" s="137"/>
+      <c r="C79" s="138"/>
       <c r="D79" s="81"/>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
@@ -4434,9 +4431,9 @@
       <c r="V79" s="26"/>
     </row>
     <row r="80" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="95"/>
-      <c r="B80" s="96"/>
-      <c r="C80" s="97"/>
+      <c r="A80" s="147"/>
+      <c r="B80" s="137"/>
+      <c r="C80" s="138"/>
       <c r="D80" s="81"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
@@ -4458,9 +4455,9 @@
       <c r="V80" s="26"/>
     </row>
     <row r="81" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="95"/>
-      <c r="B81" s="96"/>
-      <c r="C81" s="97"/>
+      <c r="A81" s="147"/>
+      <c r="B81" s="137"/>
+      <c r="C81" s="138"/>
       <c r="D81" s="81"/>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
@@ -4482,9 +4479,9 @@
       <c r="V81" s="26"/>
     </row>
     <row r="82" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="97"/>
+      <c r="A82" s="147"/>
+      <c r="B82" s="137"/>
+      <c r="C82" s="138"/>
       <c r="D82" s="81"/>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
@@ -4506,9 +4503,9 @@
       <c r="V82" s="26"/>
     </row>
     <row r="83" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="95"/>
-      <c r="B83" s="96"/>
-      <c r="C83" s="97"/>
+      <c r="A83" s="147"/>
+      <c r="B83" s="137"/>
+      <c r="C83" s="138"/>
       <c r="D83" s="81"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
@@ -4530,9 +4527,9 @@
       <c r="V83" s="26"/>
     </row>
     <row r="84" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="95"/>
-      <c r="B84" s="96"/>
-      <c r="C84" s="97"/>
+      <c r="A84" s="147"/>
+      <c r="B84" s="137"/>
+      <c r="C84" s="138"/>
       <c r="D84" s="81"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
@@ -4554,9 +4551,9 @@
       <c r="V84" s="26"/>
     </row>
     <row r="85" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="97"/>
+      <c r="A85" s="147"/>
+      <c r="B85" s="137"/>
+      <c r="C85" s="138"/>
       <c r="D85" s="81"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
@@ -4578,9 +4575,9 @@
       <c r="V85" s="26"/>
     </row>
     <row r="86" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="95"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="97"/>
+      <c r="A86" s="147"/>
+      <c r="B86" s="137"/>
+      <c r="C86" s="138"/>
       <c r="D86" s="81"/>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
@@ -4602,9 +4599,9 @@
       <c r="V86" s="26"/>
     </row>
     <row r="87" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="95"/>
-      <c r="B87" s="96"/>
-      <c r="C87" s="97"/>
+      <c r="A87" s="147"/>
+      <c r="B87" s="137"/>
+      <c r="C87" s="138"/>
       <c r="D87" s="81"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
@@ -4626,9 +4623,9 @@
       <c r="V87" s="26"/>
     </row>
     <row r="88" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="95"/>
-      <c r="B88" s="96"/>
-      <c r="C88" s="97"/>
+      <c r="A88" s="147"/>
+      <c r="B88" s="137"/>
+      <c r="C88" s="138"/>
       <c r="D88" s="81"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
@@ -4650,9 +4647,9 @@
       <c r="V88" s="26"/>
     </row>
     <row r="89" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="95"/>
-      <c r="B89" s="96"/>
-      <c r="C89" s="97"/>
+      <c r="A89" s="147"/>
+      <c r="B89" s="137"/>
+      <c r="C89" s="138"/>
       <c r="D89" s="81"/>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
@@ -4674,9 +4671,9 @@
       <c r="V89" s="26"/>
     </row>
     <row r="90" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="95"/>
-      <c r="B90" s="96"/>
-      <c r="C90" s="97"/>
+      <c r="A90" s="147"/>
+      <c r="B90" s="137"/>
+      <c r="C90" s="138"/>
       <c r="D90" s="81"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
@@ -4698,9 +4695,9 @@
       <c r="V90" s="26"/>
     </row>
     <row r="91" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="95"/>
-      <c r="B91" s="96"/>
-      <c r="C91" s="97"/>
+      <c r="A91" s="147"/>
+      <c r="B91" s="137"/>
+      <c r="C91" s="138"/>
       <c r="D91" s="81"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
@@ -4722,9 +4719,9 @@
       <c r="V91" s="26"/>
     </row>
     <row r="92" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="95"/>
-      <c r="B92" s="96"/>
-      <c r="C92" s="97"/>
+      <c r="A92" s="147"/>
+      <c r="B92" s="137"/>
+      <c r="C92" s="138"/>
       <c r="D92" s="81"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
@@ -4746,9 +4743,9 @@
       <c r="V92" s="26"/>
     </row>
     <row r="93" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="95"/>
-      <c r="B93" s="96"/>
-      <c r="C93" s="97"/>
+      <c r="A93" s="147"/>
+      <c r="B93" s="137"/>
+      <c r="C93" s="138"/>
       <c r="D93" s="81"/>
       <c r="E93" s="24"/>
       <c r="F93" s="24"/>
@@ -4770,9 +4767,9 @@
       <c r="V93" s="26"/>
     </row>
     <row r="94" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="95"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="97"/>
+      <c r="A94" s="147"/>
+      <c r="B94" s="137"/>
+      <c r="C94" s="138"/>
       <c r="D94" s="81"/>
       <c r="E94" s="24"/>
       <c r="F94" s="24"/>
@@ -4794,9 +4791,9 @@
       <c r="V94" s="26"/>
     </row>
     <row r="95" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="95"/>
-      <c r="B95" s="96"/>
-      <c r="C95" s="97"/>
+      <c r="A95" s="147"/>
+      <c r="B95" s="137"/>
+      <c r="C95" s="138"/>
       <c r="D95" s="81"/>
       <c r="E95" s="24"/>
       <c r="F95" s="24"/>
@@ -4818,9 +4815,9 @@
       <c r="V95" s="26"/>
     </row>
     <row r="96" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="95"/>
-      <c r="B96" s="96"/>
-      <c r="C96" s="97"/>
+      <c r="A96" s="147"/>
+      <c r="B96" s="137"/>
+      <c r="C96" s="138"/>
       <c r="D96" s="81"/>
       <c r="E96" s="24"/>
       <c r="F96" s="24"/>
@@ -4842,9 +4839,9 @@
       <c r="V96" s="26"/>
     </row>
     <row r="97" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="95"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="97"/>
+      <c r="A97" s="147"/>
+      <c r="B97" s="137"/>
+      <c r="C97" s="138"/>
       <c r="D97" s="81"/>
       <c r="E97" s="24"/>
       <c r="F97" s="24"/>
@@ -4866,9 +4863,9 @@
       <c r="V97" s="26"/>
     </row>
     <row r="98" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="95"/>
-      <c r="B98" s="96"/>
-      <c r="C98" s="97"/>
+      <c r="A98" s="147"/>
+      <c r="B98" s="137"/>
+      <c r="C98" s="138"/>
       <c r="D98" s="81"/>
       <c r="E98" s="24"/>
       <c r="F98" s="24"/>
@@ -4890,9 +4887,9 @@
       <c r="V98" s="26"/>
     </row>
     <row r="99" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="95"/>
-      <c r="B99" s="96"/>
-      <c r="C99" s="97"/>
+      <c r="A99" s="147"/>
+      <c r="B99" s="137"/>
+      <c r="C99" s="138"/>
       <c r="D99" s="81"/>
       <c r="E99" s="24"/>
       <c r="F99" s="24"/>
@@ -4914,9 +4911,9 @@
       <c r="V99" s="26"/>
     </row>
     <row r="100" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="95"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="97"/>
+      <c r="A100" s="147"/>
+      <c r="B100" s="137"/>
+      <c r="C100" s="138"/>
       <c r="D100" s="81"/>
       <c r="E100" s="24"/>
       <c r="F100" s="24"/>
@@ -4938,9 +4935,9 @@
       <c r="V100" s="26"/>
     </row>
     <row r="101" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="95"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="97"/>
+      <c r="A101" s="147"/>
+      <c r="B101" s="137"/>
+      <c r="C101" s="138"/>
       <c r="D101" s="81"/>
       <c r="E101" s="24"/>
       <c r="F101" s="24"/>
@@ -4962,9 +4959,9 @@
       <c r="V101" s="26"/>
     </row>
     <row r="102" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="95"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="97"/>
+      <c r="A102" s="147"/>
+      <c r="B102" s="137"/>
+      <c r="C102" s="138"/>
       <c r="D102" s="81"/>
       <c r="E102" s="24"/>
       <c r="F102" s="24"/>
@@ -4986,9 +4983,9 @@
       <c r="V102" s="26"/>
     </row>
     <row r="103" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="95"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="97"/>
+      <c r="A103" s="147"/>
+      <c r="B103" s="137"/>
+      <c r="C103" s="138"/>
       <c r="D103" s="81"/>
       <c r="E103" s="24"/>
       <c r="F103" s="24"/>
@@ -5010,9 +5007,9 @@
       <c r="V103" s="26"/>
     </row>
     <row r="104" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="95"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="97"/>
+      <c r="A104" s="147"/>
+      <c r="B104" s="137"/>
+      <c r="C104" s="138"/>
       <c r="D104" s="81"/>
       <c r="E104" s="24"/>
       <c r="F104" s="24"/>
@@ -5034,9 +5031,9 @@
       <c r="V104" s="26"/>
     </row>
     <row r="105" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="98"/>
-      <c r="B105" s="99"/>
-      <c r="C105" s="100"/>
+      <c r="A105" s="156"/>
+      <c r="B105" s="157"/>
+      <c r="C105" s="158"/>
       <c r="D105" s="83"/>
       <c r="E105" s="29"/>
       <c r="F105" s="29"/>
@@ -5062,17 +5059,106 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="T8:T9"/>
@@ -5097,106 +5183,17 @@
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="R13:R14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="T13:T14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="V13:V14"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5373,20 +5370,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5394,12 +5391,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
